--- a/omneohealthdata.xlsx
+++ b/omneohealthdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Dropbox/OMNeoHealth/forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/odkforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EA3686-3F71-4448-9E35-1077922114B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A89578-EA14-8B4C-8A55-60FAE9A92417}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5840" yWindow="460" windowWidth="38500" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="219">
   <si>
     <t>type</t>
   </si>
@@ -119,24 +119,15 @@
     <t>An author is the individual(s) whose intellectual work, such as a particular field experiment or algorithm, led to the creation of the dataset. People responsible for the data can include: individuals, groups, compilers or editors.</t>
   </si>
   <si>
-    <t>select_one month</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
     <t>month_release</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>year_release</t>
   </si>
   <si>
-    <t>day_release</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -152,30 +143,18 @@
     <t>Project start: month</t>
   </si>
   <si>
-    <t>day_project_start</t>
-  </si>
-  <si>
-    <t>Project start: day</t>
-  </si>
-  <si>
     <t>year_project_end</t>
   </si>
   <si>
     <t>month_project_end</t>
   </si>
   <si>
-    <t>day_project_end</t>
-  </si>
-  <si>
     <t>Project end: year</t>
   </si>
   <si>
     <t>Project end: month</t>
   </si>
   <si>
-    <t>Project end: day</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -257,9 +236,6 @@
     <t>hardcopy; printed</t>
   </si>
   <si>
-    <t>omneohealth</t>
-  </si>
-  <si>
     <t>select_one format</t>
   </si>
   <si>
@@ -269,25 +245,15 @@
     <t>website link/s</t>
   </si>
   <si>
-    <t>audio recording</t>
-  </si>
-  <si>
     <t>Name of the dataset or research project that produced the dataset</t>
   </si>
   <si>
     <t>Type of dataset</t>
   </si>
   <si>
-    <t xml:space="preserve">**Report** - any printed or electronic document that has predominantly text data e.g., policy documents, annual reports
-**Dataset** - </t>
-  </si>
-  <si>
     <t>Format of dataset</t>
   </si>
   <si>
-    <t>interview</t>
-  </si>
-  <si>
     <t>begin group</t>
   </si>
   <si>
@@ -295,9 +261,6 @@
   </si>
   <si>
     <t>Dataset released/published: month</t>
-  </si>
-  <si>
-    <t>Dataset released/published: day</t>
   </si>
   <si>
     <t>Reports</t>
@@ -358,10 +321,6 @@
     <t>file</t>
   </si>
   <si>
-    <t>File should be in one of these file formats:
-**txt, pdf, doc, docx, rtf, zip**</t>
-  </si>
-  <si>
     <t>Scanned report uploaded.</t>
   </si>
   <si>
@@ -392,9 +351,6 @@
     <t>Electronic report uploaded</t>
   </si>
   <si>
-    <t>Website link/s to repot</t>
-  </si>
-  <si>
     <t>selected(${report_format}, '3')</t>
   </si>
   <si>
@@ -416,9 +372,6 @@
     <t>report_website_upload</t>
   </si>
   <si>
-    <t>Electronic reprot uploaded</t>
-  </si>
-  <si>
     <t>Upload the file for the electronic format report</t>
   </si>
   <si>
@@ -432,6 +385,309 @@
   </si>
   <si>
     <t>reports_3</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month-year</t>
+  </si>
+  <si>
+    <t>File should be in one of these file formats: **txt, pdf, doc, docx, rtf, zip**</t>
+  </si>
+  <si>
+    <t>Website link/s to report</t>
+  </si>
+  <si>
+    <t>datasets</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>selected(${data_type}, '2')</t>
+  </si>
+  <si>
+    <t>dataset_format</t>
+  </si>
+  <si>
+    <t>Dataset format</t>
+  </si>
+  <si>
+    <t>dataset_format_other</t>
+  </si>
+  <si>
+    <t>Dataset format - other</t>
+  </si>
+  <si>
+    <t>Indicate which other dataset format the current report is in</t>
+  </si>
+  <si>
+    <t>datasets_1</t>
+  </si>
+  <si>
+    <t>dataset_hardcopy</t>
+  </si>
+  <si>
+    <t>dataset_hardcopy_file</t>
+  </si>
+  <si>
+    <t>dataset_hardcopy_upload</t>
+  </si>
+  <si>
+    <t>datasets_2</t>
+  </si>
+  <si>
+    <t>dataset_electronic_file</t>
+  </si>
+  <si>
+    <t>dataset_electronic_upload</t>
+  </si>
+  <si>
+    <t>datasets_3</t>
+  </si>
+  <si>
+    <t>dataset_website_url</t>
+  </si>
+  <si>
+    <t>dataset_website_download</t>
+  </si>
+  <si>
+    <t>dataset_website_file</t>
+  </si>
+  <si>
+    <t>dataset_website_upload</t>
+  </si>
+  <si>
+    <t>Hardcopy dataset format</t>
+  </si>
+  <si>
+    <t>Scan the dataset using CamScanner® app on your tablet.</t>
+  </si>
+  <si>
+    <t>Upload the file for the scanned dataset.</t>
+  </si>
+  <si>
+    <t>Scanned dataset uploaded.</t>
+  </si>
+  <si>
+    <t>Electronic dataset format</t>
+  </si>
+  <si>
+    <t>Upload the file for the electronic format dataset.</t>
+  </si>
+  <si>
+    <t>Electronic dataset uploaded</t>
+  </si>
+  <si>
+    <t>Website link/s to dataset</t>
+  </si>
+  <si>
+    <t>Download dataset from website/URL</t>
+  </si>
+  <si>
+    <t>Upload the file for the electronic format dataset</t>
+  </si>
+  <si>
+    <t>selected(${data_type}, '3')</t>
+  </si>
+  <si>
+    <t>websites</t>
+  </si>
+  <si>
+    <t>Websites</t>
+  </si>
+  <si>
+    <t>website_url</t>
+  </si>
+  <si>
+    <t>Enter full website/URL to download dataset</t>
+  </si>
+  <si>
+    <t>Enter full website/URL</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t>selected(${data_type}, '4')</t>
+  </si>
+  <si>
+    <t>record_format</t>
+  </si>
+  <si>
+    <t>Record format</t>
+  </si>
+  <si>
+    <t>record_format_other</t>
+  </si>
+  <si>
+    <t>Record format - other</t>
+  </si>
+  <si>
+    <t>records_1</t>
+  </si>
+  <si>
+    <t>Hardcopy record format</t>
+  </si>
+  <si>
+    <t>record_hardcopy</t>
+  </si>
+  <si>
+    <t>record_hardcopy_file</t>
+  </si>
+  <si>
+    <t>record_hardcopy_upload</t>
+  </si>
+  <si>
+    <t>Scan the record using CamScanner® app on your tablet.</t>
+  </si>
+  <si>
+    <t>Upload the file for the scanned record.</t>
+  </si>
+  <si>
+    <t>Scanned record uploaded.</t>
+  </si>
+  <si>
+    <t>records_2</t>
+  </si>
+  <si>
+    <t>Electronic record format</t>
+  </si>
+  <si>
+    <t>record_electronic_file</t>
+  </si>
+  <si>
+    <t>record_electronic_upload</t>
+  </si>
+  <si>
+    <t>Upload the file for the electronic format record.</t>
+  </si>
+  <si>
+    <t>Electronic record</t>
+  </si>
+  <si>
+    <t>records_3</t>
+  </si>
+  <si>
+    <t>record_website_url</t>
+  </si>
+  <si>
+    <t>record_website_download</t>
+  </si>
+  <si>
+    <t>record_website_file</t>
+  </si>
+  <si>
+    <t>record_website_upload</t>
+  </si>
+  <si>
+    <t>Website link/s to record</t>
+  </si>
+  <si>
+    <t>Download record from website/URL</t>
+  </si>
+  <si>
+    <t>Upload the file for the electronic format record</t>
+  </si>
+  <si>
+    <t>Electronic record uploaded</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>selected(${data_type}, '5')</t>
+  </si>
+  <si>
+    <t>book_format</t>
+  </si>
+  <si>
+    <t>book_format_other</t>
+  </si>
+  <si>
+    <t>Book format</t>
+  </si>
+  <si>
+    <t>Book format - other</t>
+  </si>
+  <si>
+    <t>books_1</t>
+  </si>
+  <si>
+    <t>book_hardcopy</t>
+  </si>
+  <si>
+    <t>book_hardcopy_file</t>
+  </si>
+  <si>
+    <t>book_hardcopy_upload</t>
+  </si>
+  <si>
+    <t>Hardcopy book format</t>
+  </si>
+  <si>
+    <t>Scan the book using CamScanner® app on your tablet.</t>
+  </si>
+  <si>
+    <t>Upload the file for the scanned book.</t>
+  </si>
+  <si>
+    <t>Scanned book uploaded.</t>
+  </si>
+  <si>
+    <t>books_2</t>
+  </si>
+  <si>
+    <t>Electronic book format</t>
+  </si>
+  <si>
+    <t>book_electronic_file</t>
+  </si>
+  <si>
+    <t>book_electronic_upload</t>
+  </si>
+  <si>
+    <t>Upload the file for the electronic format book.</t>
+  </si>
+  <si>
+    <t>Electronic book</t>
+  </si>
+  <si>
+    <t>books_3</t>
+  </si>
+  <si>
+    <t>book_website_url</t>
+  </si>
+  <si>
+    <t>book_website_download</t>
+  </si>
+  <si>
+    <t>book_website_file</t>
+  </si>
+  <si>
+    <t>book_website_upload</t>
+  </si>
+  <si>
+    <t>Website link/s to book</t>
+  </si>
+  <si>
+    <t>Enter full website/URL to download book</t>
+  </si>
+  <si>
+    <t>Download book from website/URL</t>
+  </si>
+  <si>
+    <t>Enter full website/URL to download record record</t>
+  </si>
+  <si>
+    <t>Upload the file for the electronic format book</t>
+  </si>
+  <si>
+    <t>Electronic book uploaded</t>
   </si>
 </sst>
 </file>
@@ -885,13 +1141,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -952,29 +1208,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="64">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="32">
@@ -985,10 +1238,10 @@
         <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="112">
@@ -1005,296 +1258,332 @@
         <v>29</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>36</v>
+      <c r="H9" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
+      <c r="H11" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="176">
+      <c r="A17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="32">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="1:14" ht="176">
-      <c r="A20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="K18" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" ht="32">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="48">
+      <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="G22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="48">
+      <c r="A27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" ht="32">
-      <c r="A24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="48">
-      <c r="A25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>111</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -1302,185 +1591,1152 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="12" t="s">
-        <v>112</v>
-      </c>
+      <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" ht="48">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:14">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="35" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="3" t="s">
+      <c r="M32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="48">
+      <c r="A34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:14" ht="176">
+      <c r="A41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="32">
+      <c r="A42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" ht="32">
+      <c r="A45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="48">
+      <c r="A46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" ht="48">
+      <c r="A51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" ht="35" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+    </row>
+    <row r="56" spans="1:14" ht="32">
+      <c r="A56" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B56" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="48">
+      <c r="A58" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="3" t="s">
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+    </row>
+    <row r="69" spans="1:14" ht="176">
+      <c r="A69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="32">
+      <c r="A70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+    </row>
+    <row r="73" spans="1:14" ht="32">
+      <c r="A73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="48">
+      <c r="A74" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+    </row>
+    <row r="79" spans="1:14" ht="48">
+      <c r="A79" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="32">
-      <c r="A37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="3" t="s">
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+    </row>
+    <row r="84" spans="1:14" ht="32">
+      <c r="A84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="48">
+      <c r="A86" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+    </row>
+    <row r="93" spans="1:14" ht="176">
+      <c r="A93" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="32">
+      <c r="A94" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+    </row>
+    <row r="97" spans="1:14" ht="32">
+      <c r="A97" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="48">
+      <c r="A98" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+    </row>
+    <row r="103" spans="1:14" ht="48">
+      <c r="A103" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="45" spans="1:14" customFormat="1"/>
-    <row r="46" spans="1:14" customFormat="1"/>
-    <row r="47" spans="1:14" customFormat="1"/>
-    <row r="48" spans="1:14" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="48">
+      <c r="A110" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1494,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2681"/>
+  <dimension ref="A1:F2679"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1527,134 +2783,134 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1667,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1678,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1691,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1704,7 +2960,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1715,7 +2971,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1725,94 +2981,77 @@
       <c r="B20" s="3">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="3">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="32" spans="1:5">
       <c r="C32" s="4"/>
@@ -1824,6 +3063,11 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
     <row r="36" spans="3:5">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1905,12 +3149,10 @@
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="3:5">
-      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
@@ -1960,7 +3202,7 @@
     </row>
     <row r="65" spans="4:5">
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="4:5">
       <c r="D66" s="4"/>
@@ -1968,7 +3210,7 @@
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="4"/>
-      <c r="E67" s="5"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="4:5">
       <c r="D68" s="4"/>
@@ -1996,7 +3238,7 @@
     </row>
     <row r="74" spans="4:5">
       <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="4:5">
       <c r="D75" s="4"/>
@@ -2004,7 +3246,7 @@
     </row>
     <row r="76" spans="4:5">
       <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="4:5">
       <c r="D77" s="4"/>
@@ -2106,13 +3348,11 @@
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="4:5">
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="4:5">
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+    <row r="200" spans="3:3">
+      <c r="C200" s="6"/>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201" s="6"/>
     </row>
     <row r="202" spans="3:3">
       <c r="C202" s="6"/>
@@ -2153,23 +3393,31 @@
     <row r="214" spans="3:3">
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="3:3">
-      <c r="C215" s="6"/>
-    </row>
-    <row r="216" spans="3:3">
-      <c r="C216" s="6"/>
+    <row r="324" spans="1:6">
+      <c r="A324" s="6"/>
+      <c r="B324" s="6"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="6"/>
+      <c r="F324" s="6"/>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="6"/>
+      <c r="B325" s="6"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="6"/>
+      <c r="F325" s="6"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="6"/>
-      <c r="B326" s="6"/>
-      <c r="C326" s="6"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
       <c r="D326" s="6"/>
       <c r="F326" s="6"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="6"/>
-      <c r="B327" s="6"/>
-      <c r="C327" s="6"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
       <c r="D327" s="6"/>
       <c r="F327" s="6"/>
     </row>
@@ -2224,15 +3472,15 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="6"/>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
+      <c r="B335" s="6"/>
+      <c r="C335" s="6"/>
       <c r="D335" s="6"/>
       <c r="F335" s="6"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="6"/>
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
+      <c r="B336" s="6"/>
+      <c r="C336" s="6"/>
       <c r="D336" s="6"/>
       <c r="F336" s="6"/>
     </row>
@@ -2415,14 +3663,12 @@
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
-      <c r="D362" s="6"/>
       <c r="F362" s="6"/>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
-      <c r="D363" s="6"/>
       <c r="F363" s="6"/>
     </row>
     <row r="364" spans="1:6">
@@ -2439,8 +3685,8 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="6"/>
-      <c r="B366" s="6"/>
-      <c r="C366" s="6"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
       <c r="F366" s="6"/>
     </row>
     <row r="367" spans="1:6">
@@ -2451,8 +3697,8 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="6"/>
-      <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
+      <c r="B368" s="6"/>
+      <c r="C368" s="6"/>
       <c r="F368" s="6"/>
     </row>
     <row r="369" spans="1:6">
@@ -2541,8 +3787,8 @@
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="6"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="6"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
       <c r="F383" s="6"/>
     </row>
     <row r="384" spans="1:6">
@@ -2553,38 +3799,38 @@
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="6"/>
-      <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
+      <c r="B385" s="7"/>
+      <c r="C385" s="7"/>
       <c r="F385" s="6"/>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="6"/>
-      <c r="B386" s="6"/>
-      <c r="C386" s="6"/>
+      <c r="B386" s="7"/>
+      <c r="C386" s="7"/>
       <c r="F386" s="6"/>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="6"/>
-      <c r="B387" s="7"/>
-      <c r="C387" s="7"/>
+      <c r="B387" s="6"/>
+      <c r="C387" s="6"/>
       <c r="F387" s="6"/>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="6"/>
-      <c r="B388" s="7"/>
-      <c r="C388" s="7"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="6"/>
       <c r="F388" s="6"/>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="6"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
       <c r="F389" s="6"/>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="6"/>
-      <c r="B390" s="6"/>
-      <c r="C390" s="6"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
       <c r="F390" s="6"/>
     </row>
     <row r="391" spans="1:6">
@@ -2595,26 +3841,26 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="6"/>
-      <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
+      <c r="B392" s="7"/>
+      <c r="C392" s="7"/>
       <c r="F392" s="6"/>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="6"/>
-      <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
+      <c r="B393" s="7"/>
+      <c r="C393" s="7"/>
       <c r="F393" s="6"/>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="6"/>
-      <c r="B394" s="7"/>
-      <c r="C394" s="7"/>
+      <c r="B394" s="6"/>
+      <c r="C394" s="6"/>
       <c r="F394" s="6"/>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="6"/>
-      <c r="B395" s="7"/>
-      <c r="C395" s="7"/>
+      <c r="B395" s="6"/>
+      <c r="C395" s="6"/>
       <c r="F395" s="6"/>
     </row>
     <row r="396" spans="1:6">
@@ -2697,8 +3943,8 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="6"/>
-      <c r="B409" s="6"/>
-      <c r="C409" s="6"/>
+      <c r="B409"/>
+      <c r="C409"/>
       <c r="F409" s="6"/>
     </row>
     <row r="410" spans="1:6">
@@ -2709,8 +3955,8 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="6"/>
-      <c r="B411"/>
-      <c r="C411"/>
+      <c r="B411" s="6"/>
+      <c r="C411" s="6"/>
       <c r="F411" s="6"/>
     </row>
     <row r="412" spans="1:6">
@@ -2991,8 +4237,8 @@
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="6"/>
-      <c r="B458" s="6"/>
-      <c r="C458" s="6"/>
+      <c r="B458"/>
+      <c r="C458"/>
       <c r="F458" s="6"/>
     </row>
     <row r="459" spans="1:6">
@@ -3003,14 +4249,14 @@
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="6"/>
-      <c r="B460"/>
-      <c r="C460"/>
+      <c r="B460" s="6"/>
+      <c r="C460" s="6"/>
       <c r="F460" s="6"/>
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="6"/>
-      <c r="B461" s="6"/>
-      <c r="C461" s="6"/>
+      <c r="B461"/>
+      <c r="C461"/>
       <c r="F461" s="6"/>
     </row>
     <row r="462" spans="1:6">
@@ -3021,8 +4267,8 @@
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="6"/>
-      <c r="B463"/>
-      <c r="C463"/>
+      <c r="B463" s="6"/>
+      <c r="C463" s="6"/>
       <c r="F463" s="6"/>
     </row>
     <row r="464" spans="1:6">
@@ -4891,17 +6137,15 @@
       <c r="C774" s="6"/>
       <c r="F774" s="6"/>
     </row>
-    <row r="775" spans="1:6">
-      <c r="A775" s="6"/>
-      <c r="B775" s="6"/>
-      <c r="C775" s="6"/>
-      <c r="F775" s="6"/>
-    </row>
     <row r="776" spans="1:6">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="6"/>
-      <c r="F776" s="6"/>
+    </row>
+    <row r="777" spans="1:6">
+      <c r="A777" s="6"/>
+      <c r="B777" s="6"/>
+      <c r="C777" s="6"/>
     </row>
     <row r="778" spans="1:6">
       <c r="A778" s="6"/>
@@ -7118,15 +8362,13 @@
       <c r="B1220" s="6"/>
       <c r="C1220" s="6"/>
     </row>
-    <row r="1221" spans="1:3">
-      <c r="A1221" s="6"/>
-      <c r="B1221" s="6"/>
-      <c r="C1221" s="6"/>
-    </row>
     <row r="1222" spans="1:3">
-      <c r="A1222" s="6"/>
-      <c r="B1222" s="6"/>
-      <c r="C1222" s="6"/>
+      <c r="B1222"/>
+      <c r="C1222"/>
+    </row>
+    <row r="1223" spans="1:3">
+      <c r="B1223"/>
+      <c r="C1223"/>
     </row>
     <row r="1224" spans="1:3">
       <c r="B1224"/>
@@ -7595,10 +8837,12 @@
     <row r="1340" spans="2:6">
       <c r="B1340"/>
       <c r="C1340"/>
+      <c r="F1340" s="6"/>
     </row>
     <row r="1341" spans="2:6">
       <c r="B1341"/>
       <c r="C1341"/>
+      <c r="F1341" s="6"/>
     </row>
     <row r="1342" spans="2:6">
       <c r="B1342"/>
@@ -7668,12 +8912,10 @@
     <row r="1355" spans="2:6">
       <c r="B1355"/>
       <c r="C1355"/>
-      <c r="F1355" s="6"/>
     </row>
     <row r="1356" spans="2:6">
       <c r="B1356"/>
       <c r="C1356"/>
-      <c r="F1356" s="6"/>
     </row>
     <row r="1357" spans="2:6">
       <c r="B1357"/>
@@ -8099,14 +9341,14 @@
       <c r="B1462"/>
       <c r="C1462"/>
     </row>
-    <row r="1463" spans="2:3">
-      <c r="B1463"/>
-      <c r="C1463"/>
-    </row>
     <row r="1464" spans="2:3">
       <c r="B1464"/>
       <c r="C1464"/>
     </row>
+    <row r="1465" spans="2:3">
+      <c r="B1465"/>
+      <c r="C1465"/>
+    </row>
     <row r="1466" spans="2:3">
       <c r="B1466"/>
       <c r="C1466"/>
@@ -8574,10 +9816,12 @@
     <row r="1582" spans="2:6">
       <c r="B1582"/>
       <c r="C1582"/>
+      <c r="F1582" s="6"/>
     </row>
     <row r="1583" spans="2:6">
       <c r="B1583"/>
       <c r="C1583"/>
+      <c r="F1583" s="6"/>
     </row>
     <row r="1584" spans="2:6">
       <c r="B1584"/>
@@ -8647,12 +9891,10 @@
     <row r="1597" spans="2:6">
       <c r="B1597"/>
       <c r="C1597"/>
-      <c r="F1597" s="6"/>
     </row>
     <row r="1598" spans="2:6">
       <c r="B1598"/>
       <c r="C1598"/>
-      <c r="F1598" s="6"/>
     </row>
     <row r="1599" spans="2:6">
       <c r="B1599"/>
@@ -9078,13 +10320,15 @@
       <c r="B1704"/>
       <c r="C1704"/>
     </row>
-    <row r="1705" spans="2:3">
-      <c r="B1705"/>
-      <c r="C1705"/>
-    </row>
-    <row r="1706" spans="2:3">
-      <c r="B1706"/>
-      <c r="C1706"/>
+    <row r="2260" spans="3:5">
+      <c r="C2260" s="4"/>
+      <c r="D2260" s="4"/>
+      <c r="E2260" s="4"/>
+    </row>
+    <row r="2261" spans="3:5">
+      <c r="C2261" s="4"/>
+      <c r="D2261" s="4"/>
+      <c r="E2261" s="4"/>
     </row>
     <row r="2262" spans="3:5">
       <c r="C2262" s="4"/>
@@ -9101,15 +10345,19 @@
       <c r="D2264" s="4"/>
       <c r="E2264" s="4"/>
     </row>
-    <row r="2265" spans="3:5">
-      <c r="C2265" s="4"/>
-      <c r="D2265" s="4"/>
-      <c r="E2265" s="4"/>
-    </row>
-    <row r="2266" spans="3:5">
-      <c r="C2266" s="4"/>
-      <c r="D2266" s="4"/>
-      <c r="E2266" s="4"/>
+    <row r="2320" spans="1:5">
+      <c r="A2320" s="6"/>
+      <c r="B2320" s="6"/>
+      <c r="C2320" s="5"/>
+      <c r="D2320" s="5"/>
+      <c r="E2320" s="5"/>
+    </row>
+    <row r="2321" spans="1:5">
+      <c r="A2321" s="6"/>
+      <c r="B2321" s="6"/>
+      <c r="C2321" s="5"/>
+      <c r="D2321" s="5"/>
+      <c r="E2321" s="5"/>
     </row>
     <row r="2322" spans="1:5">
       <c r="A2322" s="6"/>
@@ -9132,19 +10380,19 @@
       <c r="D2324" s="5"/>
       <c r="E2324" s="5"/>
     </row>
-    <row r="2325" spans="1:5">
-      <c r="A2325" s="6"/>
-      <c r="B2325" s="6"/>
-      <c r="C2325" s="5"/>
-      <c r="D2325" s="5"/>
-      <c r="E2325" s="5"/>
-    </row>
-    <row r="2326" spans="1:5">
-      <c r="A2326" s="6"/>
-      <c r="B2326" s="6"/>
-      <c r="C2326" s="5"/>
-      <c r="D2326" s="5"/>
-      <c r="E2326" s="5"/>
+    <row r="2675" spans="1:5">
+      <c r="A2675" s="6"/>
+      <c r="B2675" s="6"/>
+      <c r="C2675" s="5"/>
+      <c r="D2675" s="5"/>
+      <c r="E2675" s="5"/>
+    </row>
+    <row r="2676" spans="1:5">
+      <c r="A2676" s="6"/>
+      <c r="B2676" s="6"/>
+      <c r="C2676" s="5"/>
+      <c r="D2676" s="5"/>
+      <c r="E2676" s="5"/>
     </row>
     <row r="2677" spans="1:5">
       <c r="A2677" s="6"/>
@@ -9166,20 +10414,6 @@
       <c r="C2679" s="5"/>
       <c r="D2679" s="5"/>
       <c r="E2679" s="5"/>
-    </row>
-    <row r="2680" spans="1:5">
-      <c r="A2680" s="6"/>
-      <c r="B2680" s="6"/>
-      <c r="C2680" s="5"/>
-      <c r="D2680" s="5"/>
-      <c r="E2680" s="5"/>
-    </row>
-    <row r="2681" spans="1:5">
-      <c r="A2681" s="6"/>
-      <c r="B2681" s="6"/>
-      <c r="C2681" s="5"/>
-      <c r="D2681" s="5"/>
-      <c r="E2681" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9196,13 +10430,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="40.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -9239,7 +10473,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">

--- a/omneohealthdata.xlsx
+++ b/omneohealthdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/odkforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A89578-EA14-8B4C-8A55-60FAE9A92417}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C92BFC-B7DE-2C49-A537-75FEC065D92F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="460" windowWidth="38500" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="187">
   <si>
     <t>type</t>
   </si>
@@ -113,12 +113,6 @@
     <t>authors</t>
   </si>
   <si>
-    <t>Dataset authors/contributors</t>
-  </si>
-  <si>
-    <t>An author is the individual(s) whose intellectual work, such as a particular field experiment or algorithm, led to the creation of the dataset. People responsible for the data can include: individuals, groups, compilers or editors.</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -131,45 +125,9 @@
     <t>yes</t>
   </si>
   <si>
-    <t>year_project_start</t>
-  </si>
-  <si>
-    <t>Project start: year</t>
-  </si>
-  <si>
-    <t>month_project_start</t>
-  </si>
-  <si>
-    <t>Project start: month</t>
-  </si>
-  <si>
-    <t>year_project_end</t>
-  </si>
-  <si>
-    <t>month_project_end</t>
-  </si>
-  <si>
-    <t>Project end: year</t>
-  </si>
-  <si>
-    <t>Project end: month</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
-    <t>URL source of dataset</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>Dataset publisher</t>
-  </si>
-  <si>
-    <t>doi</t>
-  </si>
-  <si>
     <t>select_one type</t>
   </si>
   <si>
@@ -239,30 +197,15 @@
     <t>select_one format</t>
   </si>
   <si>
-    <t>data_format</t>
-  </si>
-  <si>
     <t>website link/s</t>
   </si>
   <si>
-    <t>Name of the dataset or research project that produced the dataset</t>
-  </si>
-  <si>
     <t>Type of dataset</t>
   </si>
   <si>
-    <t>Format of dataset</t>
-  </si>
-  <si>
     <t>begin group</t>
   </si>
   <si>
-    <t>Dataset released/published: year</t>
-  </si>
-  <si>
-    <t>Dataset released/published: month</t>
-  </si>
-  <si>
     <t>Reports</t>
   </si>
   <si>
@@ -270,9 +213,6 @@
   </si>
   <si>
     <t>end group</t>
-  </si>
-  <si>
-    <t>Digital object identifier</t>
   </si>
   <si>
     <t>report_format</t>
@@ -294,18 +234,12 @@
     <t>Report format - other</t>
   </si>
   <si>
-    <t>selected(${report_format}, '5')</t>
-  </si>
-  <si>
     <t>${data_type} = '1'</t>
   </si>
   <si>
     <t>report_hardcopy</t>
   </si>
   <si>
-    <t>Scan the report using CamScanner® app on your tablet.</t>
-  </si>
-  <si>
     <t>selected(${report_format}, '1')</t>
   </si>
   <si>
@@ -465,9 +399,6 @@
     <t>Hardcopy dataset format</t>
   </si>
   <si>
-    <t>Scan the dataset using CamScanner® app on your tablet.</t>
-  </si>
-  <si>
     <t>Upload the file for the scanned dataset.</t>
   </si>
   <si>
@@ -597,97 +528,73 @@
     <t>Electronic record uploaded</t>
   </si>
   <si>
-    <t>Books</t>
-  </si>
-  <si>
-    <t>selected(${data_type}, '5')</t>
-  </si>
-  <si>
-    <t>book_format</t>
-  </si>
-  <si>
-    <t>book_format_other</t>
-  </si>
-  <si>
-    <t>Book format</t>
-  </si>
-  <si>
-    <t>Book format - other</t>
-  </si>
-  <si>
-    <t>books_1</t>
-  </si>
-  <si>
-    <t>book_hardcopy</t>
-  </si>
-  <si>
-    <t>book_hardcopy_file</t>
-  </si>
-  <si>
-    <t>book_hardcopy_upload</t>
-  </si>
-  <si>
-    <t>Hardcopy book format</t>
-  </si>
-  <si>
-    <t>Scan the book using CamScanner® app on your tablet.</t>
-  </si>
-  <si>
-    <t>Upload the file for the scanned book.</t>
-  </si>
-  <si>
-    <t>Scanned book uploaded.</t>
-  </si>
-  <si>
-    <t>books_2</t>
-  </si>
-  <si>
-    <t>Electronic book format</t>
-  </si>
-  <si>
-    <t>book_electronic_file</t>
-  </si>
-  <si>
-    <t>book_electronic_upload</t>
-  </si>
-  <si>
-    <t>Upload the file for the electronic format book.</t>
-  </si>
-  <si>
-    <t>Electronic book</t>
-  </si>
-  <si>
-    <t>books_3</t>
-  </si>
-  <si>
-    <t>book_website_url</t>
-  </si>
-  <si>
-    <t>book_website_download</t>
-  </si>
-  <si>
-    <t>book_website_file</t>
-  </si>
-  <si>
-    <t>book_website_upload</t>
-  </si>
-  <si>
-    <t>Website link/s to book</t>
-  </si>
-  <si>
-    <t>Enter full website/URL to download book</t>
-  </si>
-  <si>
-    <t>Download book from website/URL</t>
-  </si>
-  <si>
     <t>Enter full website/URL to download record record</t>
   </si>
   <si>
-    <t>Upload the file for the electronic format book</t>
-  </si>
-  <si>
-    <t>Electronic book uploaded</t>
+    <t>selected(${report_format}, '4')</t>
+  </si>
+  <si>
+    <t>organisation</t>
+  </si>
+  <si>
+    <t>Name of the dataset or research project that produced the dataset/report</t>
+  </si>
+  <si>
+    <t>This is a named person/persons to whom the dataset is attributed to. If no named person/persons as authors, leave this blank.</t>
+  </si>
+  <si>
+    <t>**Required**</t>
+  </si>
+  <si>
+    <t>Dataset/report released/published: month</t>
+  </si>
+  <si>
+    <t>Dataset/report released/published: year</t>
+  </si>
+  <si>
+    <t>Dataset/report authors/contributors</t>
+  </si>
+  <si>
+    <t>Dataset/report publisher or organisation</t>
+  </si>
+  <si>
+    <t>Website/URL source of dataset/report</t>
+  </si>
+  <si>
+    <t>**Optional**. If month of dataset/report release available, enter month and year of release.</t>
+  </si>
+  <si>
+    <t>**Required**. If named person/s identified as author/s, write the organisation/department they are affiliated to. If no named/person/s identified as author/s, write the organisation/department to whom dataset/report is attributed to.</t>
+  </si>
+  <si>
+    <t>**Optional**. Write the website/URL associated with the dataset/report (if any)</t>
+  </si>
+  <si>
+    <t>**Hardcopy; printed** - report is in paper format
+**Electronic** - report is in an electronic document format such as PDF; DOC; DOCX; TXT; RTF
+**Website link/s** - report is available via a download link on the internet
+**Other** - report is in another format not specified above</t>
+  </si>
+  <si>
+    <t>reports_4</t>
+  </si>
+  <si>
+    <t>Other format</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>report_other</t>
+  </si>
+  <si>
+    <t>You have a dataset/report in a format that has not been identified earlier. Make sure to secure a copy of the dataset/report in its current format and consult with project team on next steps.</t>
+  </si>
+  <si>
+    <t>Scan the report using CamScanner® app on your tablet or through and external scanning device. Return to this form once scanning is completed.</t>
+  </si>
+  <si>
+    <t>Scan the dataset using CamScanner® app on your tablet  or through and external scanning device. Return to this form once scanning is completed.</t>
   </si>
 </sst>
 </file>
@@ -1141,13 +1048,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C112" sqref="C112"/>
+      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1210,247 +1117,262 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="32">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="32">
+        <v>168</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="64">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="112">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="53" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="112">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="48">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>120</v>
+        <v>175</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="A10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" ht="170" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>63</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="32">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="10" t="s">
+      <c r="A14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="64">
+      <c r="A15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="48">
+      <c r="A16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" ht="176">
+      <c r="G16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="32">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="12" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1460,382 +1382,379 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:14" ht="32">
+    <row r="21" spans="1:14" ht="48">
       <c r="A21" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="35" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="48">
+      <c r="A28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="48">
-      <c r="A22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="48">
-      <c r="A27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="C29" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="C30" s="4"/>
+      <c r="A30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="35" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="80">
       <c r="A33" s="3" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="48">
-      <c r="A34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="C37" s="4"/>
+      <c r="A36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+      <c r="K38" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="10" t="s">
+    <row r="39" spans="1:14" ht="176">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="32">
+      <c r="A40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" ht="64">
+      <c r="A43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="48">
+      <c r="A44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="1:14" ht="176">
-      <c r="A41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="32">
-      <c r="A42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="1:14" ht="32">
-      <c r="A45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="48">
-      <c r="A46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -1843,72 +1762,72 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
+      <c r="K48" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
     </row>
-    <row r="49" spans="1:14">
-      <c r="C49" s="4"/>
+    <row r="49" spans="1:14" ht="48">
+      <c r="A49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-    </row>
-    <row r="51" spans="1:14" ht="48">
-      <c r="A51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -1916,171 +1835,168 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
+      <c r="K53" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
     </row>
-    <row r="54" spans="1:14">
-      <c r="C54" s="4"/>
+    <row r="54" spans="1:14" ht="32">
+      <c r="A54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-    </row>
-    <row r="56" spans="1:14" ht="32">
+      <c r="A55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="48">
       <c r="A56" s="3" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>33</v>
+        <v>129</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="48">
-      <c r="A58" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="C61" s="4"/>
+      <c r="A60" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="11"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
+      <c r="K62" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
     </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="64" spans="1:14">
       <c r="A64" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>155</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="G64" s="11"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
-      <c r="K64" s="10" t="s">
-        <v>153</v>
-      </c>
+      <c r="K64" s="10"/>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="66" spans="1:14">
       <c r="A66" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -2088,135 +2004,138 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
+      <c r="K66" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="10" t="s">
+    <row r="67" spans="1:14" ht="176">
+      <c r="A67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-    </row>
-    <row r="69" spans="1:14" ht="176">
-      <c r="A69" s="3" t="s">
+    </row>
+    <row r="68" spans="1:14" ht="32">
+      <c r="A68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="32">
-      <c r="A70" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-    </row>
-    <row r="73" spans="1:14" ht="32">
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+    </row>
+    <row r="71" spans="1:14" ht="32">
+      <c r="A71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="48">
+      <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="48">
-      <c r="A74" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -2224,72 +2143,72 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
+      <c r="K76" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
     </row>
-    <row r="77" spans="1:14">
-      <c r="C77" s="4"/>
+    <row r="77" spans="1:14" ht="48">
+      <c r="A77" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-    </row>
-    <row r="79" spans="1:14" ht="48">
-      <c r="A79" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A78" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -2297,109 +2216,102 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
+      <c r="K81" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
     </row>
-    <row r="82" spans="1:14">
-      <c r="C82" s="4"/>
+    <row r="82" spans="1:14" ht="32">
+      <c r="A82" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-    </row>
-    <row r="84" spans="1:14" ht="32">
+      <c r="A83" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="48">
       <c r="A84" s="3" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>33</v>
+        <v>163</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="48">
-      <c r="A86" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
+      <c r="A88" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="10" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -2414,328 +2326,6 @@
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-    </row>
-    <row r="93" spans="1:14" ht="176">
-      <c r="A93" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="32">
-      <c r="A94" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-    </row>
-    <row r="97" spans="1:14" ht="32">
-      <c r="A97" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="48">
-      <c r="A98" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-    </row>
-    <row r="103" spans="1:14" ht="48">
-      <c r="A103" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
-      <c r="A104" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="A105" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-    </row>
-    <row r="106" spans="1:14">
-      <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="1:14">
-      <c r="A107" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="A108" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="M108" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="A109" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="48">
-      <c r="A110" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-    </row>
-    <row r="114" spans="1:14">
-      <c r="A114" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2783,134 +2373,134 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2923,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2934,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2947,7 +2537,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2960,7 +2550,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2971,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2982,7 +2572,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2994,48 +2584,48 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5">

--- a/omneohealthdata.xlsx
+++ b/omneohealthdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/odkforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/metadataform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C92BFC-B7DE-2C49-A537-75FEC065D92F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51134648-9A21-7C4C-9476-944B5BA7B627}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="460" windowWidth="38500" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5840" yWindow="460" windowWidth="38500" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="188">
   <si>
     <t>type</t>
   </si>
@@ -595,6 +595,9 @@
   </si>
   <si>
     <t>Scan the dataset using CamScanner® app on your tablet  or through and external scanning device. Return to this form once scanning is completed.</t>
+  </si>
+  <si>
+    <t>metadataform</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -10019,8 +10022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10063,7 +10066,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">

--- a/omneohealthdata.xlsx
+++ b/omneohealthdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/metadataform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51134648-9A21-7C4C-9476-944B5BA7B627}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60B35F-FA54-E142-AB97-0EDD6CB59C0F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="460" windowWidth="38500" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5840" yWindow="460" windowWidth="38500" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="188">
   <si>
     <t>type</t>
   </si>
@@ -1051,13 +1051,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2311,24 +2311,6 @@
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10022,7 +10004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/omneohealthdata.xlsx
+++ b/omneohealthdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/metadataform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DDD8D9-D752-2346-B043-65DF087BB8B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377B986C-9BE5-AC44-9182-F584F06218F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12580" yWindow="460" windowWidth="38500" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1978,9 +1978,6 @@
     <t>Torokina Rural</t>
   </si>
   <si>
-    <t>selected(${admin}, '1')</t>
-  </si>
-  <si>
     <t>select_multiple district</t>
   </si>
   <si>
@@ -2030,6 +2027,9 @@
   </si>
   <si>
     <t>Indicate other/additional information about ${data_type_name}</t>
+  </si>
+  <si>
+    <t>selected(${admin}, '4')</t>
   </si>
 </sst>
 </file>
@@ -2486,10 +2486,10 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2605,49 +2605,49 @@
         <v>219</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="311" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>648</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="311" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>654</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>167</v>
@@ -2661,13 +2661,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="64">
@@ -2757,13 +2757,13 @@
         <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -3850,7 +3850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2534"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C497" sqref="C497"/>
     </sheetView>
   </sheetViews>
@@ -5651,7 +5651,7 @@
         <v>329</v>
       </c>
       <c r="B161" s="3">
-        <f>B160+1</f>
+        <f t="shared" ref="B161:B166" si="2">B160+1</f>
         <v>2</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -5663,7 +5663,7 @@
         <v>329</v>
       </c>
       <c r="B162" s="3">
-        <f>B161+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -5675,7 +5675,7 @@
         <v>329</v>
       </c>
       <c r="B163" s="3">
-        <f>B162+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -5687,7 +5687,7 @@
         <v>329</v>
       </c>
       <c r="B164" s="3">
-        <f>B163+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -5699,7 +5699,7 @@
         <v>329</v>
       </c>
       <c r="B165" s="3">
-        <f>B164+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -5711,7 +5711,7 @@
         <v>329</v>
       </c>
       <c r="B166" s="3">
-        <f>B165+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -5723,7 +5723,7 @@
         <v>329</v>
       </c>
       <c r="B167" s="3">
-        <f t="shared" ref="B167:B177" si="2">B166+1</f>
+        <f t="shared" ref="B167:B177" si="3">B166+1</f>
         <v>8</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -5735,7 +5735,7 @@
         <v>329</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -5747,7 +5747,7 @@
         <v>329</v>
       </c>
       <c r="B169" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -5759,7 +5759,7 @@
         <v>329</v>
       </c>
       <c r="B170" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -5771,7 +5771,7 @@
         <v>329</v>
       </c>
       <c r="B171" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -5783,7 +5783,7 @@
         <v>329</v>
       </c>
       <c r="B172" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -5795,7 +5795,7 @@
         <v>329</v>
       </c>
       <c r="B173" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -5807,7 +5807,7 @@
         <v>329</v>
       </c>
       <c r="B174" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -5819,7 +5819,7 @@
         <v>329</v>
       </c>
       <c r="B175" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -5831,7 +5831,7 @@
         <v>329</v>
       </c>
       <c r="B176" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -5843,7 +5843,7 @@
         <v>329</v>
       </c>
       <c r="B177" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -5867,7 +5867,7 @@
         <v>329</v>
       </c>
       <c r="B179" s="3">
-        <f t="shared" ref="B179:B242" si="3">B178+1</f>
+        <f t="shared" ref="B179:B242" si="4">B178+1</f>
         <v>20</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -5879,7 +5879,7 @@
         <v>329</v>
       </c>
       <c r="B180" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -5891,7 +5891,7 @@
         <v>329</v>
       </c>
       <c r="B181" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -5903,7 +5903,7 @@
         <v>329</v>
       </c>
       <c r="B182" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -5915,7 +5915,7 @@
         <v>329</v>
       </c>
       <c r="B183" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -5927,7 +5927,7 @@
         <v>329</v>
       </c>
       <c r="B184" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -5939,7 +5939,7 @@
         <v>329</v>
       </c>
       <c r="B185" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -5951,7 +5951,7 @@
         <v>329</v>
       </c>
       <c r="B186" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -5963,7 +5963,7 @@
         <v>329</v>
       </c>
       <c r="B187" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -5975,7 +5975,7 @@
         <v>329</v>
       </c>
       <c r="B188" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -5987,7 +5987,7 @@
         <v>329</v>
       </c>
       <c r="B189" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -5999,7 +5999,7 @@
         <v>329</v>
       </c>
       <c r="B190" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -6011,7 +6011,7 @@
         <v>329</v>
       </c>
       <c r="B191" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -6023,7 +6023,7 @@
         <v>329</v>
       </c>
       <c r="B192" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -6035,7 +6035,7 @@
         <v>329</v>
       </c>
       <c r="B193" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -6047,7 +6047,7 @@
         <v>329</v>
       </c>
       <c r="B194" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -6059,7 +6059,7 @@
         <v>329</v>
       </c>
       <c r="B195" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -6071,7 +6071,7 @@
         <v>329</v>
       </c>
       <c r="B196" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -6083,7 +6083,7 @@
         <v>329</v>
       </c>
       <c r="B197" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -6095,7 +6095,7 @@
         <v>329</v>
       </c>
       <c r="B198" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -6107,7 +6107,7 @@
         <v>329</v>
       </c>
       <c r="B199" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -6119,7 +6119,7 @@
         <v>329</v>
       </c>
       <c r="B200" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -6131,7 +6131,7 @@
         <v>329</v>
       </c>
       <c r="B201" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -6143,7 +6143,7 @@
         <v>329</v>
       </c>
       <c r="B202" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -6155,7 +6155,7 @@
         <v>329</v>
       </c>
       <c r="B203" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -6167,7 +6167,7 @@
         <v>329</v>
       </c>
       <c r="B204" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -6179,7 +6179,7 @@
         <v>329</v>
       </c>
       <c r="B205" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -6191,7 +6191,7 @@
         <v>329</v>
       </c>
       <c r="B206" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -6203,7 +6203,7 @@
         <v>329</v>
       </c>
       <c r="B207" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -6215,7 +6215,7 @@
         <v>329</v>
       </c>
       <c r="B208" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -6227,7 +6227,7 @@
         <v>329</v>
       </c>
       <c r="B209" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -6239,7 +6239,7 @@
         <v>329</v>
       </c>
       <c r="B210" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -6251,7 +6251,7 @@
         <v>329</v>
       </c>
       <c r="B211" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -6263,7 +6263,7 @@
         <v>329</v>
       </c>
       <c r="B212" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -6275,7 +6275,7 @@
         <v>329</v>
       </c>
       <c r="B213" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -6287,7 +6287,7 @@
         <v>329</v>
       </c>
       <c r="B214" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -6299,7 +6299,7 @@
         <v>329</v>
       </c>
       <c r="B215" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -6311,7 +6311,7 @@
         <v>329</v>
       </c>
       <c r="B216" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -6323,7 +6323,7 @@
         <v>329</v>
       </c>
       <c r="B217" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -6335,7 +6335,7 @@
         <v>329</v>
       </c>
       <c r="B218" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -6347,7 +6347,7 @@
         <v>329</v>
       </c>
       <c r="B219" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -6359,7 +6359,7 @@
         <v>329</v>
       </c>
       <c r="B220" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -6371,7 +6371,7 @@
         <v>329</v>
       </c>
       <c r="B221" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -6384,7 +6384,7 @@
         <v>329</v>
       </c>
       <c r="B222" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -6397,7 +6397,7 @@
         <v>329</v>
       </c>
       <c r="B223" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -6410,7 +6410,7 @@
         <v>329</v>
       </c>
       <c r="B224" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -6424,7 +6424,7 @@
         <v>329</v>
       </c>
       <c r="B225" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -6437,7 +6437,7 @@
         <v>329</v>
       </c>
       <c r="B226" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -6450,7 +6450,7 @@
         <v>329</v>
       </c>
       <c r="B227" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -6463,7 +6463,7 @@
         <v>329</v>
       </c>
       <c r="B228" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -6475,7 +6475,7 @@
         <v>329</v>
       </c>
       <c r="B229" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -6487,7 +6487,7 @@
         <v>329</v>
       </c>
       <c r="B230" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -6499,7 +6499,7 @@
         <v>329</v>
       </c>
       <c r="B231" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -6511,7 +6511,7 @@
         <v>329</v>
       </c>
       <c r="B232" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -6523,7 +6523,7 @@
         <v>329</v>
       </c>
       <c r="B233" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -6535,7 +6535,7 @@
         <v>329</v>
       </c>
       <c r="B234" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -6547,7 +6547,7 @@
         <v>329</v>
       </c>
       <c r="B235" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -6559,7 +6559,7 @@
         <v>329</v>
       </c>
       <c r="B236" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -6571,7 +6571,7 @@
         <v>329</v>
       </c>
       <c r="B237" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -6583,7 +6583,7 @@
         <v>329</v>
       </c>
       <c r="B238" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -6595,7 +6595,7 @@
         <v>329</v>
       </c>
       <c r="B239" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -6607,7 +6607,7 @@
         <v>329</v>
       </c>
       <c r="B240" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -6619,7 +6619,7 @@
         <v>329</v>
       </c>
       <c r="B241" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -6631,7 +6631,7 @@
         <v>329</v>
       </c>
       <c r="B242" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -6643,7 +6643,7 @@
         <v>329</v>
       </c>
       <c r="B243" s="3">
-        <f t="shared" ref="B243:B306" si="4">B242+1</f>
+        <f t="shared" ref="B243:B306" si="5">B242+1</f>
         <v>84</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -6655,7 +6655,7 @@
         <v>329</v>
       </c>
       <c r="B244" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -6667,7 +6667,7 @@
         <v>329</v>
       </c>
       <c r="B245" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -6679,7 +6679,7 @@
         <v>329</v>
       </c>
       <c r="B246" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -6691,7 +6691,7 @@
         <v>329</v>
       </c>
       <c r="B247" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -6703,7 +6703,7 @@
         <v>329</v>
       </c>
       <c r="B248" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -6715,7 +6715,7 @@
         <v>329</v>
       </c>
       <c r="B249" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -6727,7 +6727,7 @@
         <v>329</v>
       </c>
       <c r="B250" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -6739,7 +6739,7 @@
         <v>329</v>
       </c>
       <c r="B251" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -6751,7 +6751,7 @@
         <v>329</v>
       </c>
       <c r="B252" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -6763,7 +6763,7 @@
         <v>329</v>
       </c>
       <c r="B253" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -6775,7 +6775,7 @@
         <v>329</v>
       </c>
       <c r="B254" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -6787,7 +6787,7 @@
         <v>329</v>
       </c>
       <c r="B255" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -6799,7 +6799,7 @@
         <v>329</v>
       </c>
       <c r="B256" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -6811,7 +6811,7 @@
         <v>329</v>
       </c>
       <c r="B257" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -6823,7 +6823,7 @@
         <v>329</v>
       </c>
       <c r="B258" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -6835,7 +6835,7 @@
         <v>329</v>
       </c>
       <c r="B259" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -6847,7 +6847,7 @@
         <v>329</v>
       </c>
       <c r="B260" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -6859,7 +6859,7 @@
         <v>329</v>
       </c>
       <c r="B261" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -6871,7 +6871,7 @@
         <v>329</v>
       </c>
       <c r="B262" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -6883,7 +6883,7 @@
         <v>329</v>
       </c>
       <c r="B263" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -6895,7 +6895,7 @@
         <v>329</v>
       </c>
       <c r="B264" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -6907,7 +6907,7 @@
         <v>329</v>
       </c>
       <c r="B265" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -6919,7 +6919,7 @@
         <v>329</v>
       </c>
       <c r="B266" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -6931,7 +6931,7 @@
         <v>329</v>
       </c>
       <c r="B267" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -6943,7 +6943,7 @@
         <v>329</v>
       </c>
       <c r="B268" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -6955,7 +6955,7 @@
         <v>329</v>
       </c>
       <c r="B269" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -6967,7 +6967,7 @@
         <v>329</v>
       </c>
       <c r="B270" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -6979,7 +6979,7 @@
         <v>329</v>
       </c>
       <c r="B271" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -6991,7 +6991,7 @@
         <v>329</v>
       </c>
       <c r="B272" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -7003,7 +7003,7 @@
         <v>329</v>
       </c>
       <c r="B273" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -7015,7 +7015,7 @@
         <v>329</v>
       </c>
       <c r="B274" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -7027,7 +7027,7 @@
         <v>329</v>
       </c>
       <c r="B275" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -7039,7 +7039,7 @@
         <v>329</v>
       </c>
       <c r="B276" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -7051,7 +7051,7 @@
         <v>329</v>
       </c>
       <c r="B277" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -7063,7 +7063,7 @@
         <v>329</v>
       </c>
       <c r="B278" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -7075,7 +7075,7 @@
         <v>329</v>
       </c>
       <c r="B279" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -7087,7 +7087,7 @@
         <v>329</v>
       </c>
       <c r="B280" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -7099,7 +7099,7 @@
         <v>329</v>
       </c>
       <c r="B281" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -7111,7 +7111,7 @@
         <v>329</v>
       </c>
       <c r="B282" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -7123,7 +7123,7 @@
         <v>329</v>
       </c>
       <c r="B283" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -7135,7 +7135,7 @@
         <v>329</v>
       </c>
       <c r="B284" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -7147,7 +7147,7 @@
         <v>329</v>
       </c>
       <c r="B285" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -7159,7 +7159,7 @@
         <v>329</v>
       </c>
       <c r="B286" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -7172,7 +7172,7 @@
         <v>329</v>
       </c>
       <c r="B287" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -7185,7 +7185,7 @@
         <v>329</v>
       </c>
       <c r="B288" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -7198,7 +7198,7 @@
         <v>329</v>
       </c>
       <c r="B289" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -7211,7 +7211,7 @@
         <v>329</v>
       </c>
       <c r="B290" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -7224,7 +7224,7 @@
         <v>329</v>
       </c>
       <c r="B291" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="C291" s="1" t="s">
@@ -7237,7 +7237,7 @@
         <v>329</v>
       </c>
       <c r="B292" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -7250,7 +7250,7 @@
         <v>329</v>
       </c>
       <c r="B293" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>134</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -7263,7 +7263,7 @@
         <v>329</v>
       </c>
       <c r="B294" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -7276,7 +7276,7 @@
         <v>329</v>
       </c>
       <c r="B295" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -7289,7 +7289,7 @@
         <v>329</v>
       </c>
       <c r="B296" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -7302,7 +7302,7 @@
         <v>329</v>
       </c>
       <c r="B297" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="C297" s="1" t="s">
@@ -7315,7 +7315,7 @@
         <v>329</v>
       </c>
       <c r="B298" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="C298" s="1" t="s">
@@ -7327,7 +7327,7 @@
         <v>329</v>
       </c>
       <c r="B299" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="C299" s="1" t="s">
@@ -7339,7 +7339,7 @@
         <v>329</v>
       </c>
       <c r="B300" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -7351,7 +7351,7 @@
         <v>329</v>
       </c>
       <c r="B301" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -7363,7 +7363,7 @@
         <v>329</v>
       </c>
       <c r="B302" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -7375,7 +7375,7 @@
         <v>329</v>
       </c>
       <c r="B303" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -7387,7 +7387,7 @@
         <v>329</v>
       </c>
       <c r="B304" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -7399,7 +7399,7 @@
         <v>329</v>
       </c>
       <c r="B305" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -7411,7 +7411,7 @@
         <v>329</v>
       </c>
       <c r="B306" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -7423,7 +7423,7 @@
         <v>329</v>
       </c>
       <c r="B307" s="3">
-        <f t="shared" ref="B307:B308" si="5">B306+1</f>
+        <f t="shared" ref="B307:B308" si="6">B306+1</f>
         <v>148</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -7435,7 +7435,7 @@
         <v>329</v>
       </c>
       <c r="B308" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>149</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -7459,7 +7459,7 @@
         <v>329</v>
       </c>
       <c r="B310" s="3">
-        <f t="shared" ref="B310:B373" si="6">B309+1</f>
+        <f t="shared" ref="B310:B373" si="7">B309+1</f>
         <v>151</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -7471,7 +7471,7 @@
         <v>329</v>
       </c>
       <c r="B311" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>152</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -7483,7 +7483,7 @@
         <v>329</v>
       </c>
       <c r="B312" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>153</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -7495,7 +7495,7 @@
         <v>329</v>
       </c>
       <c r="B313" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>154</v>
       </c>
       <c r="C313" s="1" t="s">
@@ -7507,7 +7507,7 @@
         <v>329</v>
       </c>
       <c r="B314" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -7519,7 +7519,7 @@
         <v>329</v>
       </c>
       <c r="B315" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -7531,7 +7531,7 @@
         <v>329</v>
       </c>
       <c r="B316" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>157</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -7543,7 +7543,7 @@
         <v>329</v>
       </c>
       <c r="B317" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -7555,7 +7555,7 @@
         <v>329</v>
       </c>
       <c r="B318" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>159</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -7567,7 +7567,7 @@
         <v>329</v>
       </c>
       <c r="B319" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -7579,7 +7579,7 @@
         <v>329</v>
       </c>
       <c r="B320" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>161</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -7591,7 +7591,7 @@
         <v>329</v>
       </c>
       <c r="B321" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>162</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -7603,7 +7603,7 @@
         <v>329</v>
       </c>
       <c r="B322" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>163</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -7615,7 +7615,7 @@
         <v>329</v>
       </c>
       <c r="B323" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>164</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -7627,7 +7627,7 @@
         <v>329</v>
       </c>
       <c r="B324" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -7639,7 +7639,7 @@
         <v>329</v>
       </c>
       <c r="B325" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>166</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -7651,7 +7651,7 @@
         <v>329</v>
       </c>
       <c r="B326" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>167</v>
       </c>
       <c r="C326" s="1" t="s">
@@ -7663,7 +7663,7 @@
         <v>329</v>
       </c>
       <c r="B327" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>168</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -7675,7 +7675,7 @@
         <v>329</v>
       </c>
       <c r="B328" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>169</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -7687,7 +7687,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -7699,7 +7699,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>171</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -7711,7 +7711,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172</v>
       </c>
       <c r="C331" s="1" t="s">
@@ -7723,7 +7723,7 @@
         <v>329</v>
       </c>
       <c r="B332" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>173</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -7735,7 +7735,7 @@
         <v>329</v>
       </c>
       <c r="B333" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>174</v>
       </c>
       <c r="C333" s="1" t="s">
@@ -7747,7 +7747,7 @@
         <v>329</v>
       </c>
       <c r="B334" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
       <c r="C334" s="1" t="s">
@@ -7759,7 +7759,7 @@
         <v>329</v>
       </c>
       <c r="B335" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>176</v>
       </c>
       <c r="C335" s="1" t="s">
@@ -7771,7 +7771,7 @@
         <v>329</v>
       </c>
       <c r="B336" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>177</v>
       </c>
       <c r="C336" s="1" t="s">
@@ -7783,7 +7783,7 @@
         <v>329</v>
       </c>
       <c r="B337" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>178</v>
       </c>
       <c r="C337" s="1" t="s">
@@ -7795,7 +7795,7 @@
         <v>329</v>
       </c>
       <c r="B338" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>179</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -7807,7 +7807,7 @@
         <v>329</v>
       </c>
       <c r="B339" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="C339" s="1" t="s">
@@ -7819,7 +7819,7 @@
         <v>329</v>
       </c>
       <c r="B340" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>181</v>
       </c>
       <c r="C340" s="1" t="s">
@@ -7831,7 +7831,7 @@
         <v>329</v>
       </c>
       <c r="B341" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>182</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -7843,7 +7843,7 @@
         <v>329</v>
       </c>
       <c r="B342" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>183</v>
       </c>
       <c r="C342" s="1" t="s">
@@ -7855,7 +7855,7 @@
         <v>329</v>
       </c>
       <c r="B343" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>184</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -7867,7 +7867,7 @@
         <v>329</v>
       </c>
       <c r="B344" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>185</v>
       </c>
       <c r="C344" s="1" t="s">
@@ -7879,7 +7879,7 @@
         <v>329</v>
       </c>
       <c r="B345" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>186</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -7891,7 +7891,7 @@
         <v>329</v>
       </c>
       <c r="B346" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>187</v>
       </c>
       <c r="C346" s="1" t="s">
@@ -7903,7 +7903,7 @@
         <v>329</v>
       </c>
       <c r="B347" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>188</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -7915,7 +7915,7 @@
         <v>329</v>
       </c>
       <c r="B348" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>189</v>
       </c>
       <c r="C348" s="1" t="s">
@@ -7927,7 +7927,7 @@
         <v>329</v>
       </c>
       <c r="B349" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -7939,7 +7939,7 @@
         <v>329</v>
       </c>
       <c r="B350" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>191</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -7951,7 +7951,7 @@
         <v>329</v>
       </c>
       <c r="B351" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -7963,7 +7963,7 @@
         <v>329</v>
       </c>
       <c r="B352" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>193</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -7975,7 +7975,7 @@
         <v>329</v>
       </c>
       <c r="B353" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>194</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -7987,7 +7987,7 @@
         <v>329</v>
       </c>
       <c r="B354" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>195</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -7999,7 +7999,7 @@
         <v>329</v>
       </c>
       <c r="B355" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>196</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -8011,7 +8011,7 @@
         <v>329</v>
       </c>
       <c r="B356" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>197</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -8023,7 +8023,7 @@
         <v>329</v>
       </c>
       <c r="B357" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>198</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -8035,7 +8035,7 @@
         <v>329</v>
       </c>
       <c r="B358" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>199</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -8047,7 +8047,7 @@
         <v>329</v>
       </c>
       <c r="B359" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="C359" s="1" t="s">
@@ -8059,7 +8059,7 @@
         <v>329</v>
       </c>
       <c r="B360" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>201</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -8071,7 +8071,7 @@
         <v>329</v>
       </c>
       <c r="B361" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>202</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -8083,7 +8083,7 @@
         <v>329</v>
       </c>
       <c r="B362" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>203</v>
       </c>
       <c r="C362" s="1" t="s">
@@ -8095,7 +8095,7 @@
         <v>329</v>
       </c>
       <c r="B363" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>204</v>
       </c>
       <c r="C363" s="1" t="s">
@@ -8107,7 +8107,7 @@
         <v>329</v>
       </c>
       <c r="B364" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>205</v>
       </c>
       <c r="C364" s="1" t="s">
@@ -8119,7 +8119,7 @@
         <v>329</v>
       </c>
       <c r="B365" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>206</v>
       </c>
       <c r="C365" s="1" t="s">
@@ -8131,7 +8131,7 @@
         <v>329</v>
       </c>
       <c r="B366" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>207</v>
       </c>
       <c r="C366" s="1" t="s">
@@ -8143,7 +8143,7 @@
         <v>329</v>
       </c>
       <c r="B367" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>208</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -8155,7 +8155,7 @@
         <v>329</v>
       </c>
       <c r="B368" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>209</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -8167,7 +8167,7 @@
         <v>329</v>
       </c>
       <c r="B369" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -8179,7 +8179,7 @@
         <v>329</v>
       </c>
       <c r="B370" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>211</v>
       </c>
       <c r="C370" s="1" t="s">
@@ -8191,7 +8191,7 @@
         <v>329</v>
       </c>
       <c r="B371" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>212</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -8203,7 +8203,7 @@
         <v>329</v>
       </c>
       <c r="B372" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>213</v>
       </c>
       <c r="C372" s="1" t="s">
@@ -8215,7 +8215,7 @@
         <v>329</v>
       </c>
       <c r="B373" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>214</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -8227,7 +8227,7 @@
         <v>329</v>
       </c>
       <c r="B374" s="3">
-        <f t="shared" ref="B374:B437" si="7">B373+1</f>
+        <f t="shared" ref="B374:B437" si="8">B373+1</f>
         <v>215</v>
       </c>
       <c r="C374" s="1" t="s">
@@ -8239,7 +8239,7 @@
         <v>329</v>
       </c>
       <c r="B375" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>216</v>
       </c>
       <c r="C375" s="1" t="s">
@@ -8251,7 +8251,7 @@
         <v>329</v>
       </c>
       <c r="B376" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>217</v>
       </c>
       <c r="C376" s="1" t="s">
@@ -8263,7 +8263,7 @@
         <v>329</v>
       </c>
       <c r="B377" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>218</v>
       </c>
       <c r="C377" s="1" t="s">
@@ -8275,7 +8275,7 @@
         <v>329</v>
       </c>
       <c r="B378" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>219</v>
       </c>
       <c r="C378" s="1" t="s">
@@ -8287,7 +8287,7 @@
         <v>329</v>
       </c>
       <c r="B379" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="C379" s="1" t="s">
@@ -8299,7 +8299,7 @@
         <v>329</v>
       </c>
       <c r="B380" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>221</v>
       </c>
       <c r="C380" s="1" t="s">
@@ -8311,7 +8311,7 @@
         <v>329</v>
       </c>
       <c r="B381" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>222</v>
       </c>
       <c r="C381" s="1" t="s">
@@ -8323,7 +8323,7 @@
         <v>329</v>
       </c>
       <c r="B382" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>223</v>
       </c>
       <c r="C382" s="1" t="s">
@@ -8335,7 +8335,7 @@
         <v>329</v>
       </c>
       <c r="B383" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>224</v>
       </c>
       <c r="C383" s="1" t="s">
@@ -8347,7 +8347,7 @@
         <v>329</v>
       </c>
       <c r="B384" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>225</v>
       </c>
       <c r="C384" s="1" t="s">
@@ -8359,7 +8359,7 @@
         <v>329</v>
       </c>
       <c r="B385" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>226</v>
       </c>
       <c r="C385" s="1" t="s">
@@ -8371,7 +8371,7 @@
         <v>329</v>
       </c>
       <c r="B386" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>227</v>
       </c>
       <c r="C386" s="1" t="s">
@@ -8383,7 +8383,7 @@
         <v>329</v>
       </c>
       <c r="B387" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>228</v>
       </c>
       <c r="C387" s="1" t="s">
@@ -8395,7 +8395,7 @@
         <v>329</v>
       </c>
       <c r="B388" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>229</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -8407,7 +8407,7 @@
         <v>329</v>
       </c>
       <c r="B389" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="C389" s="1" t="s">
@@ -8419,7 +8419,7 @@
         <v>329</v>
       </c>
       <c r="B390" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>231</v>
       </c>
       <c r="C390" s="1" t="s">
@@ -8431,7 +8431,7 @@
         <v>329</v>
       </c>
       <c r="B391" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>232</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -8443,7 +8443,7 @@
         <v>329</v>
       </c>
       <c r="B392" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>233</v>
       </c>
       <c r="C392" s="1" t="s">
@@ -8455,7 +8455,7 @@
         <v>329</v>
       </c>
       <c r="B393" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>234</v>
       </c>
       <c r="C393" s="1" t="s">
@@ -8467,7 +8467,7 @@
         <v>329</v>
       </c>
       <c r="B394" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>235</v>
       </c>
       <c r="C394" s="1" t="s">
@@ -8479,7 +8479,7 @@
         <v>329</v>
       </c>
       <c r="B395" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>236</v>
       </c>
       <c r="C395" s="1" t="s">
@@ -8491,7 +8491,7 @@
         <v>329</v>
       </c>
       <c r="B396" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>237</v>
       </c>
       <c r="C396" s="1" t="s">
@@ -8503,7 +8503,7 @@
         <v>329</v>
       </c>
       <c r="B397" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>238</v>
       </c>
       <c r="C397" s="1" t="s">
@@ -8515,7 +8515,7 @@
         <v>329</v>
       </c>
       <c r="B398" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>239</v>
       </c>
       <c r="C398" s="1" t="s">
@@ -8527,7 +8527,7 @@
         <v>329</v>
       </c>
       <c r="B399" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="C399" s="1" t="s">
@@ -8539,7 +8539,7 @@
         <v>329</v>
       </c>
       <c r="B400" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>241</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -8551,7 +8551,7 @@
         <v>329</v>
       </c>
       <c r="B401" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>242</v>
       </c>
       <c r="C401" s="1" t="s">
@@ -8563,7 +8563,7 @@
         <v>329</v>
       </c>
       <c r="B402" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>243</v>
       </c>
       <c r="C402" s="1" t="s">
@@ -8575,7 +8575,7 @@
         <v>329</v>
       </c>
       <c r="B403" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>244</v>
       </c>
       <c r="C403" s="1" t="s">
@@ -8587,7 +8587,7 @@
         <v>329</v>
       </c>
       <c r="B404" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>245</v>
       </c>
       <c r="C404" s="1" t="s">
@@ -8599,7 +8599,7 @@
         <v>329</v>
       </c>
       <c r="B405" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>246</v>
       </c>
       <c r="C405" s="1" t="s">
@@ -8611,7 +8611,7 @@
         <v>329</v>
       </c>
       <c r="B406" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>247</v>
       </c>
       <c r="C406" s="1" t="s">
@@ -8623,7 +8623,7 @@
         <v>329</v>
       </c>
       <c r="B407" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>248</v>
       </c>
       <c r="C407" s="1" t="s">
@@ -8635,7 +8635,7 @@
         <v>329</v>
       </c>
       <c r="B408" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>249</v>
       </c>
       <c r="C408" s="1" t="s">
@@ -8647,7 +8647,7 @@
         <v>329</v>
       </c>
       <c r="B409" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="C409" s="1" t="s">
@@ -8659,7 +8659,7 @@
         <v>329</v>
       </c>
       <c r="B410" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>251</v>
       </c>
       <c r="C410" s="1" t="s">
@@ -8671,7 +8671,7 @@
         <v>329</v>
       </c>
       <c r="B411" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>252</v>
       </c>
       <c r="C411" s="1" t="s">
@@ -8683,7 +8683,7 @@
         <v>329</v>
       </c>
       <c r="B412" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>253</v>
       </c>
       <c r="C412" s="1" t="s">
@@ -8695,7 +8695,7 @@
         <v>329</v>
       </c>
       <c r="B413" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>254</v>
       </c>
       <c r="C413" s="1" t="s">
@@ -8707,7 +8707,7 @@
         <v>329</v>
       </c>
       <c r="B414" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>255</v>
       </c>
       <c r="C414" s="1" t="s">
@@ -8719,7 +8719,7 @@
         <v>329</v>
       </c>
       <c r="B415" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>256</v>
       </c>
       <c r="C415" s="1" t="s">
@@ -8731,7 +8731,7 @@
         <v>329</v>
       </c>
       <c r="B416" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>257</v>
       </c>
       <c r="C416" s="1" t="s">
@@ -8743,7 +8743,7 @@
         <v>329</v>
       </c>
       <c r="B417" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>258</v>
       </c>
       <c r="C417" s="1" t="s">
@@ -8755,7 +8755,7 @@
         <v>329</v>
       </c>
       <c r="B418" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>259</v>
       </c>
       <c r="C418" s="1" t="s">
@@ -8767,7 +8767,7 @@
         <v>329</v>
       </c>
       <c r="B419" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>260</v>
       </c>
       <c r="C419" s="1" t="s">
@@ -8779,7 +8779,7 @@
         <v>329</v>
       </c>
       <c r="B420" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>261</v>
       </c>
       <c r="C420" s="1" t="s">
@@ -8791,7 +8791,7 @@
         <v>329</v>
       </c>
       <c r="B421" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>262</v>
       </c>
       <c r="C421" s="1" t="s">
@@ -8803,7 +8803,7 @@
         <v>329</v>
       </c>
       <c r="B422" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>263</v>
       </c>
       <c r="C422" s="1" t="s">
@@ -8815,7 +8815,7 @@
         <v>329</v>
       </c>
       <c r="B423" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>264</v>
       </c>
       <c r="C423" s="1" t="s">
@@ -8827,7 +8827,7 @@
         <v>329</v>
       </c>
       <c r="B424" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>265</v>
       </c>
       <c r="C424" s="1" t="s">
@@ -8839,7 +8839,7 @@
         <v>329</v>
       </c>
       <c r="B425" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>266</v>
       </c>
       <c r="C425" s="1" t="s">
@@ -8851,7 +8851,7 @@
         <v>329</v>
       </c>
       <c r="B426" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>267</v>
       </c>
       <c r="C426" s="1" t="s">
@@ -8863,7 +8863,7 @@
         <v>329</v>
       </c>
       <c r="B427" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>268</v>
       </c>
       <c r="C427" s="1" t="s">
@@ -8875,7 +8875,7 @@
         <v>329</v>
       </c>
       <c r="B428" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>269</v>
       </c>
       <c r="C428" s="1" t="s">
@@ -8887,7 +8887,7 @@
         <v>329</v>
       </c>
       <c r="B429" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="C429" s="1" t="s">
@@ -8899,7 +8899,7 @@
         <v>329</v>
       </c>
       <c r="B430" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>271</v>
       </c>
       <c r="C430" s="1" t="s">
@@ -8911,7 +8911,7 @@
         <v>329</v>
       </c>
       <c r="B431" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>272</v>
       </c>
       <c r="C431" s="1" t="s">
@@ -8923,7 +8923,7 @@
         <v>329</v>
       </c>
       <c r="B432" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>273</v>
       </c>
       <c r="C432" s="1" t="s">
@@ -8935,7 +8935,7 @@
         <v>329</v>
       </c>
       <c r="B433" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>274</v>
       </c>
       <c r="C433" s="1" t="s">
@@ -8947,7 +8947,7 @@
         <v>329</v>
       </c>
       <c r="B434" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>275</v>
       </c>
       <c r="C434" s="1" t="s">
@@ -8959,7 +8959,7 @@
         <v>329</v>
       </c>
       <c r="B435" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>276</v>
       </c>
       <c r="C435" s="1" t="s">
@@ -8971,7 +8971,7 @@
         <v>329</v>
       </c>
       <c r="B436" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>277</v>
       </c>
       <c r="C436" s="1" t="s">
@@ -8983,7 +8983,7 @@
         <v>329</v>
       </c>
       <c r="B437" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>278</v>
       </c>
       <c r="C437" s="1" t="s">
@@ -8995,7 +8995,7 @@
         <v>329</v>
       </c>
       <c r="B438" s="3">
-        <f t="shared" ref="B438:B485" si="8">B437+1</f>
+        <f t="shared" ref="B438:B485" si="9">B437+1</f>
         <v>279</v>
       </c>
       <c r="C438" s="1" t="s">
@@ -9007,7 +9007,7 @@
         <v>329</v>
       </c>
       <c r="B439" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="C439" s="1" t="s">
@@ -9019,7 +9019,7 @@
         <v>329</v>
       </c>
       <c r="B440" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>281</v>
       </c>
       <c r="C440" s="1" t="s">
@@ -9031,7 +9031,7 @@
         <v>329</v>
       </c>
       <c r="B441" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>282</v>
       </c>
       <c r="C441" s="1" t="s">
@@ -9043,7 +9043,7 @@
         <v>329</v>
       </c>
       <c r="B442" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>283</v>
       </c>
       <c r="C442" s="1" t="s">
@@ -9055,7 +9055,7 @@
         <v>329</v>
       </c>
       <c r="B443" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>284</v>
       </c>
       <c r="C443" s="1" t="s">
@@ -9067,7 +9067,7 @@
         <v>329</v>
       </c>
       <c r="B444" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>285</v>
       </c>
       <c r="C444" s="1" t="s">
@@ -9079,7 +9079,7 @@
         <v>329</v>
       </c>
       <c r="B445" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>286</v>
       </c>
       <c r="C445" s="1" t="s">
@@ -9091,7 +9091,7 @@
         <v>329</v>
       </c>
       <c r="B446" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>287</v>
       </c>
       <c r="C446" s="1" t="s">
@@ -9103,7 +9103,7 @@
         <v>329</v>
       </c>
       <c r="B447" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>288</v>
       </c>
       <c r="C447" s="1" t="s">
@@ -9115,7 +9115,7 @@
         <v>329</v>
       </c>
       <c r="B448" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>289</v>
       </c>
       <c r="C448" s="1" t="s">
@@ -9127,7 +9127,7 @@
         <v>329</v>
       </c>
       <c r="B449" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>290</v>
       </c>
       <c r="C449" s="1" t="s">
@@ -9139,7 +9139,7 @@
         <v>329</v>
       </c>
       <c r="B450" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="C450" s="1" t="s">
@@ -9151,7 +9151,7 @@
         <v>329</v>
       </c>
       <c r="B451" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="C451" s="1" t="s">
@@ -9163,7 +9163,7 @@
         <v>329</v>
       </c>
       <c r="B452" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>293</v>
       </c>
       <c r="C452" s="1" t="s">
@@ -9175,7 +9175,7 @@
         <v>329</v>
       </c>
       <c r="B453" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>294</v>
       </c>
       <c r="C453" s="1" t="s">
@@ -9187,7 +9187,7 @@
         <v>329</v>
       </c>
       <c r="B454" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>295</v>
       </c>
       <c r="C454" s="1" t="s">
@@ -9199,7 +9199,7 @@
         <v>329</v>
       </c>
       <c r="B455" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="C455" s="1" t="s">
@@ -9211,7 +9211,7 @@
         <v>329</v>
       </c>
       <c r="B456" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>297</v>
       </c>
       <c r="C456" s="1" t="s">
@@ -9223,7 +9223,7 @@
         <v>329</v>
       </c>
       <c r="B457" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>298</v>
       </c>
       <c r="C457" s="1" t="s">
@@ -9235,7 +9235,7 @@
         <v>329</v>
       </c>
       <c r="B458" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>299</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -9247,7 +9247,7 @@
         <v>329</v>
       </c>
       <c r="B459" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="C459" s="1" t="s">
@@ -9259,7 +9259,7 @@
         <v>329</v>
       </c>
       <c r="B460" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>301</v>
       </c>
       <c r="C460" s="1" t="s">
@@ -9271,7 +9271,7 @@
         <v>329</v>
       </c>
       <c r="B461" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>302</v>
       </c>
       <c r="C461" s="1" t="s">
@@ -9283,7 +9283,7 @@
         <v>329</v>
       </c>
       <c r="B462" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>303</v>
       </c>
       <c r="C462" s="1" t="s">
@@ -9295,7 +9295,7 @@
         <v>329</v>
       </c>
       <c r="B463" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>304</v>
       </c>
       <c r="C463" s="1" t="s">
@@ -9307,7 +9307,7 @@
         <v>329</v>
       </c>
       <c r="B464" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>305</v>
       </c>
       <c r="C464" s="1" t="s">
@@ -9319,7 +9319,7 @@
         <v>329</v>
       </c>
       <c r="B465" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>306</v>
       </c>
       <c r="C465" s="1" t="s">
@@ -9331,7 +9331,7 @@
         <v>329</v>
       </c>
       <c r="B466" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>307</v>
       </c>
       <c r="C466" s="1" t="s">
@@ -9343,7 +9343,7 @@
         <v>329</v>
       </c>
       <c r="B467" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>308</v>
       </c>
       <c r="C467" s="1" t="s">
@@ -9356,7 +9356,7 @@
         <v>329</v>
       </c>
       <c r="B468" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>309</v>
       </c>
       <c r="C468" s="1" t="s">
@@ -9369,7 +9369,7 @@
         <v>329</v>
       </c>
       <c r="B469" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>310</v>
       </c>
       <c r="C469" s="1" t="s">
@@ -9382,7 +9382,7 @@
         <v>329</v>
       </c>
       <c r="B470" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>311</v>
       </c>
       <c r="C470" s="1" t="s">
@@ -9395,7 +9395,7 @@
         <v>329</v>
       </c>
       <c r="B471" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>312</v>
       </c>
       <c r="C471" s="1" t="s">
@@ -9408,7 +9408,7 @@
         <v>329</v>
       </c>
       <c r="B472" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>313</v>
       </c>
       <c r="C472" s="1" t="s">
@@ -9421,7 +9421,7 @@
         <v>329</v>
       </c>
       <c r="B473" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>314</v>
       </c>
       <c r="C473" s="1" t="s">
@@ -9434,7 +9434,7 @@
         <v>329</v>
       </c>
       <c r="B474" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>315</v>
       </c>
       <c r="C474" s="1" t="s">
@@ -9447,7 +9447,7 @@
         <v>329</v>
       </c>
       <c r="B475" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>316</v>
       </c>
       <c r="C475" s="1" t="s">
@@ -9460,7 +9460,7 @@
         <v>329</v>
       </c>
       <c r="B476" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>317</v>
       </c>
       <c r="C476" s="1" t="s">
@@ -9473,7 +9473,7 @@
         <v>329</v>
       </c>
       <c r="B477" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>318</v>
       </c>
       <c r="C477" s="1" t="s">
@@ -9486,7 +9486,7 @@
         <v>329</v>
       </c>
       <c r="B478" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>319</v>
       </c>
       <c r="C478" s="1" t="s">
@@ -9499,7 +9499,7 @@
         <v>329</v>
       </c>
       <c r="B479" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>320</v>
       </c>
       <c r="C479" s="1" t="s">
@@ -9512,7 +9512,7 @@
         <v>329</v>
       </c>
       <c r="B480" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>321</v>
       </c>
       <c r="C480" s="1" t="s">
@@ -9525,7 +9525,7 @@
         <v>329</v>
       </c>
       <c r="B481" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>322</v>
       </c>
       <c r="C481" s="1" t="s">
@@ -9538,7 +9538,7 @@
         <v>329</v>
       </c>
       <c r="B482" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>323</v>
       </c>
       <c r="C482" s="1" t="s">
@@ -9551,7 +9551,7 @@
         <v>329</v>
       </c>
       <c r="B483" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>324</v>
       </c>
       <c r="C483" s="1" t="s">
@@ -9564,7 +9564,7 @@
         <v>329</v>
       </c>
       <c r="B484" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>325</v>
       </c>
       <c r="C484" s="1" t="s">
@@ -9577,7 +9577,7 @@
         <v>329</v>
       </c>
       <c r="B485" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>326</v>
       </c>
       <c r="C485" s="1" t="s">
